--- a/candidats.xlsx
+++ b/candidats.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="311">
   <si>
     <t>name</t>
   </si>
@@ -57,37 +57,115 @@
     <t xml:space="preserve">Reza Uteem </t>
   </si>
   <si>
+    <t>Aadil Ameer Meea</t>
+  </si>
+  <si>
     <t>MMM</t>
   </si>
   <si>
+    <t>Fawzi Allymun</t>
+  </si>
+  <si>
     <t>Nabil Moolna</t>
   </si>
   <si>
     <t>Reza Gunny</t>
   </si>
   <si>
+    <t>Aslam Hossenally</t>
+  </si>
+  <si>
     <t>Osman Mahomed</t>
   </si>
   <si>
     <t>L'Alliance Nationale</t>
   </si>
   <si>
+    <t>Shakeel Mohamed</t>
+  </si>
+  <si>
     <t>PTR</t>
   </si>
   <si>
+    <t>Arianne Navarre-Marie</t>
+  </si>
+  <si>
     <t>Éric Ng</t>
   </si>
   <si>
-    <t>Zouberr Joomaye</t>
+    <t>Eshan Juman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veda Baloomody </t>
+  </si>
+  <si>
+    <t>Dr Abdullah Hossen</t>
+  </si>
+  <si>
+    <t>Salim Abbas-Mamode</t>
+  </si>
+  <si>
+    <t>PMSD</t>
   </si>
   <si>
     <t>L'Alliance Morisien</t>
   </si>
   <si>
-    <t>Abdullah Hossen</t>
-  </si>
-  <si>
-    <t>Shakila Jahangeer</t>
+    <t>Optometriste</t>
+  </si>
+  <si>
+    <t>Mamad Aleem Bocus</t>
+  </si>
+  <si>
+    <t>MSM</t>
+  </si>
+  <si>
+    <t>Avocat</t>
+  </si>
+  <si>
+    <t>Dr Mohammad Anwar Husnoo</t>
+  </si>
+  <si>
+    <t>Pédiatre</t>
+  </si>
+  <si>
+    <t>Parwez Nurwoollah</t>
+  </si>
+  <si>
+    <t>Entrepreneur</t>
+  </si>
+  <si>
+    <t>Lindsey Collen</t>
+  </si>
+  <si>
+    <t>Lalit</t>
+  </si>
+  <si>
+    <t>LAL</t>
+  </si>
+  <si>
+    <t>BACSOU Saleem</t>
+  </si>
+  <si>
+    <t>Shakilla Bibi Jhungeer</t>
+  </si>
+  <si>
+    <t>Rezistans ek Alternativ</t>
+  </si>
+  <si>
+    <t>kontroler bis</t>
+  </si>
+  <si>
+    <t>REA</t>
+  </si>
+  <si>
+    <t>Dr Zouberr Houssein Issa Joomaye</t>
+  </si>
+  <si>
+    <t>Docteur</t>
+  </si>
+  <si>
+    <t>Giovanni Catherine</t>
   </si>
   <si>
     <t>Chantal Sobha</t>
@@ -96,16 +174,46 @@
     <t>Les Verts Fraternel</t>
   </si>
   <si>
+    <t>Jean-Claude Barbier</t>
+  </si>
+  <si>
     <t>LVF</t>
   </si>
   <si>
+    <t>MPB</t>
+  </si>
+  <si>
     <t>Denis Larhubarbe</t>
   </si>
   <si>
-    <t>Lalit</t>
-  </si>
-  <si>
-    <t>LAL</t>
+    <t>Patrice Armance</t>
+  </si>
+  <si>
+    <t>MARIE Dany</t>
+  </si>
+  <si>
+    <t>Fabrice David</t>
+  </si>
+  <si>
+    <t>Louis Clive Auffray</t>
+  </si>
+  <si>
+    <t>Dr Marie Christiane Dorine Chukowry</t>
+  </si>
+  <si>
+    <t>Dhojaven Vencadasmy (Nilen)</t>
+  </si>
+  <si>
+    <t>Marie Jacqueline Carine Bodinade-Kathan</t>
+  </si>
+  <si>
+    <t>Roland Boussac, Suneeta Duval</t>
+  </si>
+  <si>
+    <t>Christine Adelia</t>
+  </si>
+  <si>
+    <t>CHIFFONNE Essan Michel</t>
   </si>
   <si>
     <t>Robert Hungley</t>
@@ -126,358 +234,427 @@
     <t>Aurore Perraud</t>
   </si>
   <si>
-    <t>PMSD</t>
-  </si>
-  <si>
-    <t>Lesjongard Joe</t>
-  </si>
-  <si>
-    <t>Tour Joanne</t>
-  </si>
-  <si>
-    <t>Luchmun Roy Subashnee</t>
+    <t>Madan Dulloo</t>
+  </si>
+  <si>
+    <t>Joe Lesjongard</t>
+  </si>
+  <si>
+    <t>Anil Seeruttun</t>
+  </si>
+  <si>
+    <t>Akash Beejan</t>
+  </si>
+  <si>
+    <t>Ingénieur</t>
+  </si>
+  <si>
+    <t>Nitin Busguth</t>
+  </si>
+  <si>
+    <t>Sebastien Lamy</t>
+  </si>
+  <si>
+    <t>Subhasnee Luchmun Roy</t>
+  </si>
+  <si>
+    <t>Ex-animatrice</t>
+  </si>
+  <si>
+    <t>Jean Marc Ah-Foo</t>
+  </si>
+  <si>
+    <t>Mahend Gungaparsad</t>
+  </si>
+  <si>
+    <t>Marie Joane Sabrina Tour</t>
+  </si>
+  <si>
+    <t>Satish Faugoo</t>
+  </si>
+  <si>
+    <t>Ranjiv Wooochit</t>
+  </si>
+  <si>
+    <t>Directrice</t>
+  </si>
+  <si>
+    <t>Seetohul</t>
+  </si>
+  <si>
+    <t>Ashit Kumar Gungah</t>
+  </si>
+  <si>
+    <t>Navin Ramgoolam</t>
+  </si>
+  <si>
+    <t>Soodesh Satkam Callichurn</t>
+  </si>
+  <si>
+    <t>Dr Anjiv Ramdhany</t>
+  </si>
+  <si>
+    <t>Ex-magistrat</t>
+  </si>
+  <si>
+    <t>Médecin</t>
   </si>
   <si>
     <t>Alain Bruno Fantaisie</t>
   </si>
   <si>
+    <t>Dr Jairajsing Luchoo</t>
+  </si>
+  <si>
+    <t>Avinash Teeluck</t>
+  </si>
+  <si>
+    <t>Consultant</t>
+  </si>
+  <si>
     <t>Sarah Naraina</t>
   </si>
   <si>
-    <t>Anil Seeruttun</t>
-  </si>
-  <si>
-    <t>Nitin Busguth</t>
-  </si>
-  <si>
-    <t>Jean Marc AhFoo</t>
-  </si>
-  <si>
-    <t>Ranjiv Wooochit</t>
-  </si>
-  <si>
-    <t>Seetohul</t>
-  </si>
-  <si>
-    <t>Navin Ramgoolam</t>
-  </si>
-  <si>
-    <t>Soodesh Saktam Callichurn</t>
-  </si>
-  <si>
-    <t>Dr Jayrajsingh Luchoo</t>
+    <t>Juriste</t>
   </si>
   <si>
     <t>Sharvanand Ramkaun</t>
   </si>
   <si>
+    <t>Sylvio Cyril Legallant</t>
+  </si>
+  <si>
+    <t>MONTILLE Michel Dany</t>
+  </si>
+  <si>
+    <t>Profeser primer</t>
+  </si>
+  <si>
+    <t>Marie Danièle Le Merle</t>
+  </si>
+  <si>
     <t>Louis José François</t>
   </si>
   <si>
     <t>Hans Marie</t>
   </si>
   <si>
+    <t>FAKIR Homlata (Swany)</t>
+  </si>
+  <si>
+    <t>ekolozist</t>
+  </si>
+  <si>
     <t>Patrick Marie</t>
   </si>
   <si>
     <t>Batmadevi Kistnasamy</t>
   </si>
   <si>
-    <t>Madan Dulloo</t>
-  </si>
-  <si>
-    <t>Akash Beejan</t>
-  </si>
-  <si>
-    <t>Sebastien Lamy</t>
-  </si>
-  <si>
-    <t>Mahend Gungaparsad</t>
-  </si>
-  <si>
-    <t>Satish Faugoo</t>
-  </si>
-  <si>
-    <t>Avinash Teeluck</t>
-  </si>
-  <si>
-    <t>Ashit Gungah</t>
-  </si>
-  <si>
-    <t>Dr Anjiv Ramdhany</t>
-  </si>
-  <si>
-    <t>Sylvio Cyril Legallant</t>
-  </si>
-  <si>
-    <t>Marie Danièle Le Merle</t>
-  </si>
-  <si>
-    <t>Aadil Ameer Meea</t>
-  </si>
-  <si>
-    <t>Fawzi Allymun</t>
-  </si>
-  <si>
-    <t>Aslam Hossenally</t>
-  </si>
-  <si>
-    <t>Arianne NavarreMarie</t>
-  </si>
-  <si>
-    <t>Shakeel Mohamed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veda Baloomody </t>
-  </si>
-  <si>
-    <t>Eshan Juman</t>
-  </si>
-  <si>
-    <t>Salim AbbasMamode</t>
-  </si>
-  <si>
-    <t>Anwar Husnoo</t>
-  </si>
-  <si>
-    <t>Mamade Alim Baccus</t>
-  </si>
-  <si>
-    <t>Parvez Nurwoolah</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Lindsey Collen</t>
-  </si>
-  <si>
-    <t>Giovanni Catherine</t>
-  </si>
-  <si>
-    <t>JeanClaude Barbier</t>
-  </si>
-  <si>
-    <t>MPB</t>
-  </si>
-  <si>
-    <t>Patrice Armance</t>
-  </si>
-  <si>
-    <t>Fabrice David</t>
-  </si>
-  <si>
-    <t>Dorine Chuckowry</t>
-  </si>
-  <si>
-    <t>Clive Auffray</t>
-  </si>
-  <si>
-    <t>Nilen Vencadasmy</t>
-  </si>
-  <si>
-    <t>Marie Jacqueline Carine BodinadeKathan</t>
-  </si>
-  <si>
-    <t>Roland Boussac, Suneeta Duval</t>
-  </si>
-  <si>
-    <t>Christine Adelia</t>
+    <t>BANEE Kashmira</t>
+  </si>
+  <si>
+    <t>Anvironnmantalis</t>
+  </si>
+  <si>
+    <t>Govinden Vencatasami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chetan Baboolall </t>
   </si>
   <si>
     <t>Pravind K. Ramtohul</t>
   </si>
   <si>
+    <t>Neera Seebarrun</t>
+  </si>
+  <si>
+    <t>Vinaye Ancharaz</t>
+  </si>
+  <si>
     <t>Vinod Gooriah</t>
   </si>
   <si>
+    <t>Dr. Ramloll</t>
+  </si>
+  <si>
+    <t>Anoop Poonith</t>
+  </si>
+  <si>
     <t>Subash Kissoondoyal</t>
   </si>
   <si>
+    <t>Suren Dayal</t>
+  </si>
+  <si>
+    <t>Devanand Ritoo</t>
+  </si>
+  <si>
+    <t>Ashock Jugnauth</t>
+  </si>
+  <si>
     <t>Raj Pentiah</t>
   </si>
   <si>
+    <t>Anil Bachoo</t>
+  </si>
+  <si>
     <t>Pratibha Bholah</t>
   </si>
   <si>
+    <t>Aartee Boodhonee</t>
+  </si>
+  <si>
+    <t>Dhiraj Khamajeet</t>
+  </si>
+  <si>
+    <t>Sudha Ramen</t>
+  </si>
+  <si>
+    <t>Rajanah Dhaliah (Ravi)</t>
+  </si>
+  <si>
+    <t>Darsanand Balgobin (Deepak)</t>
+  </si>
+  <si>
+    <t>Leela Devi Dookhun-Luchoomun</t>
+  </si>
+  <si>
+    <t>Sudheer Maudhoo</t>
+  </si>
+  <si>
+    <t>Ex Enseignante</t>
+  </si>
+  <si>
+    <t>Directeur</t>
+  </si>
+  <si>
+    <t>Pravind Kumar Jugnauth</t>
+  </si>
+  <si>
     <t>Maneesh Gobin</t>
   </si>
   <si>
-    <t>Raj Dhaliah</t>
-  </si>
-  <si>
-    <t>Kalpana Koonjoo  Shah</t>
+    <t>Sanjit Kumar Nuckcheddy (Vikash)</t>
+  </si>
+  <si>
+    <t>Yogida Sawmynaden</t>
+  </si>
+  <si>
+    <t>Rada Kistnasamy</t>
+  </si>
+  <si>
+    <t>Kalpana Devi Koonjoo Shah</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>Chimiste</t>
+  </si>
+  <si>
+    <t>REMILLAH Catherine</t>
+  </si>
+  <si>
+    <t>DHOLAH Paveetree (Veena)</t>
   </si>
   <si>
     <t>Georges Herchenroder</t>
   </si>
   <si>
-    <t>Govinden Vencatasami</t>
-  </si>
-  <si>
-    <t>Neera Seebarrun</t>
-  </si>
-  <si>
-    <t>Dr. Ramloll</t>
-  </si>
-  <si>
-    <t>Suren Dayal</t>
-  </si>
-  <si>
-    <t>Ashock Jugnauth</t>
-  </si>
-  <si>
-    <t>Aartee Boodhonee</t>
-  </si>
-  <si>
-    <t>Sudha Ramen</t>
+    <t>SURETTE Norbert</t>
+  </si>
+  <si>
+    <t>Militant syndical</t>
+  </si>
+  <si>
+    <t>Vinay Koonjul</t>
   </si>
   <si>
     <t> Dave Kissoondoyal  </t>
   </si>
   <si>
-    <t>Vinay Koonjul</t>
+    <t>Lucia Melanie</t>
   </si>
   <si>
     <t>Sheila Bunwaree</t>
   </si>
   <si>
-    <t>Lucia Melanie</t>
+    <t>Parvez Sadul</t>
+  </si>
+  <si>
+    <t>Tony Apollon</t>
+  </si>
+  <si>
+    <t>Jim Seetaram</t>
   </si>
   <si>
     <t>Nitin Jeeha</t>
   </si>
   <si>
-    <t>Parvez Sadul</t>
+    <t>Rouma Bahadoor</t>
+  </si>
+  <si>
+    <t>Reza Saumtally</t>
   </si>
   <si>
     <t>Rajesh Jeetah</t>
   </si>
   <si>
-    <t>Jim Seetaram</t>
+    <t>Soomilduth Bholah</t>
+  </si>
+  <si>
+    <t>Kishore Pertab</t>
   </si>
   <si>
     <t>Ashley Ramdass</t>
   </si>
   <si>
-    <t>Reza Saumtally</t>
+    <t>Expert-comptable</t>
+  </si>
+  <si>
+    <t>Richard Duval</t>
   </si>
   <si>
     <t>Anishta Babooram</t>
   </si>
   <si>
-    <t>Vikram Hurdoyal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chetan Baboolall </t>
-  </si>
-  <si>
-    <t>Mahen Seeruttun</t>
-  </si>
-  <si>
-    <t>Sunil Bholah</t>
+    <t>Teeruthraj Hurdoyal (Vikram)</t>
+  </si>
+  <si>
+    <t>Ritesh Ramful</t>
   </si>
   <si>
     <t>Teenah Jutton</t>
   </si>
   <si>
-    <t>Vinaye Ancharaz</t>
-  </si>
-  <si>
-    <t>Zahid Nuzurally</t>
+    <t>Avinash Bissessur</t>
+  </si>
+  <si>
+    <t>Mohammud Zahid Nazurally</t>
+  </si>
+  <si>
+    <t>Lecturer</t>
+  </si>
+  <si>
+    <t>Rameswar (Kavi) Doolub</t>
+  </si>
+  <si>
+    <t>Naguib Foodun</t>
   </si>
   <si>
     <t>Naveena Ramyad</t>
   </si>
   <si>
-    <t>Naguib Foodun</t>
-  </si>
-  <si>
-    <t>Anoop Poonith</t>
+    <t>Directeur de marketing</t>
+  </si>
+  <si>
+    <t>Ex- enseignante</t>
+  </si>
+  <si>
+    <t>Seetresen Murday</t>
+  </si>
+  <si>
+    <t>Mahendranuth (Bobby) Hurreeram</t>
+  </si>
+  <si>
+    <t>Mahen Kumar Seeruttun</t>
+  </si>
+  <si>
+    <t>Diplômé en Marketing</t>
+  </si>
+  <si>
+    <t>Christian Batour</t>
+  </si>
+  <si>
+    <t>Jean Christophe Stephan Toussaint</t>
+  </si>
+  <si>
+    <t>Ex- directeur des finance</t>
+  </si>
+  <si>
+    <t>HERRY Louis Raymond</t>
+  </si>
+  <si>
+    <t>Ex-enseignant</t>
   </si>
   <si>
     <t>Elvis Franco Onno</t>
   </si>
   <si>
-    <t>Devanand Ritoo</t>
-  </si>
-  <si>
-    <t>Seetresen Murday</t>
-  </si>
-  <si>
-    <t>Anil Bachoo</t>
-  </si>
-  <si>
-    <t>Christian Batour</t>
-  </si>
-  <si>
-    <t>Dhiraj Khamajeet</t>
-  </si>
-  <si>
-    <t>Deepak Balgobin</t>
-  </si>
-  <si>
-    <t>Sudhir Maudhoo</t>
-  </si>
-  <si>
-    <t>Vikash Nuckchedy</t>
-  </si>
-  <si>
-    <t>Rada Kistnasamy</t>
-  </si>
-  <si>
-    <t>Tony Apollon</t>
-  </si>
-  <si>
-    <t>Rouma Bahadoor</t>
-  </si>
-  <si>
-    <t>Kishore Pertab</t>
-  </si>
-  <si>
-    <t>Richard Duval</t>
-  </si>
-  <si>
-    <t>Ritesh Ramful</t>
+    <t>Roland Fozoo</t>
+  </si>
+  <si>
+    <t>NARRAIN Devianand</t>
+  </si>
+  <si>
+    <t>HENNEQUIN Yolande</t>
+  </si>
+  <si>
+    <t>Sekreter GWF ek CSG</t>
+  </si>
+  <si>
+    <t>Gid marinn</t>
+  </si>
+  <si>
+    <t>Avi Thancanamootoo</t>
+  </si>
+  <si>
+    <t>Prem Aumeer</t>
+  </si>
+  <si>
+    <t>Munsoo Kurrimbaccus</t>
+  </si>
+  <si>
+    <t>Sailesh Bissumber</t>
   </si>
   <si>
     <t>Ravind Juggurnath</t>
   </si>
   <si>
-    <t>Avinash Bissessur</t>
-  </si>
-  <si>
-    <t>RAMFUL Dhananjay (Ritish)</t>
+    <t>Rubna Daureeawoo</t>
+  </si>
+  <si>
+    <t>Rajen Narsinghen</t>
   </si>
   <si>
     <t xml:space="preserve">Critanand Atma </t>
   </si>
   <si>
+    <t>Dr Kailesh Kumar Singh Jagutpal</t>
+  </si>
+  <si>
+    <t>Psychiatre</t>
+  </si>
+  <si>
     <t>Jasmine Toulouse</t>
   </si>
   <si>
-    <t>Avi Thancanamootoo</t>
+    <t>Dr Renganaden  Padayachy</t>
   </si>
   <si>
     <t>Ezra Jhuboo</t>
   </si>
   <si>
-    <t>Prem Aumeer</t>
+    <t>Docteur en économie</t>
   </si>
   <si>
     <t>Mahen Goondeea</t>
   </si>
   <si>
-    <t>Munsoo Kurrimbaccus</t>
+    <t>Dr Muhammad Ismaël Rawoo</t>
   </si>
   <si>
     <t>Véronique Leu</t>
   </si>
   <si>
+    <t>Chirurgien–dentiste</t>
+  </si>
+  <si>
     <t>Alan Ganoo</t>
   </si>
   <si>
-    <t>Sailesh Bissumber</t>
+    <t>Cindy Clelie</t>
   </si>
   <si>
     <t>MPA</t>
@@ -486,169 +663,217 @@
     <t>Sandra Mayotte</t>
   </si>
   <si>
-    <t>MSM</t>
-  </si>
-  <si>
-    <t>DUVAL Richard</t>
-  </si>
-  <si>
-    <t>Prakash Ramchurn</t>
-  </si>
-  <si>
-    <t>Rubna Daureeawoo</t>
-  </si>
-  <si>
-    <t>MarieLourdes Chelvan</t>
-  </si>
-  <si>
-    <t>BISSESSUR Avinash</t>
-  </si>
-  <si>
-    <t>Rajen Narsinghen</t>
-  </si>
-  <si>
-    <t>Roland Fozoo</t>
+    <t>SUBRON Ashok Kumar</t>
+  </si>
+  <si>
+    <t>Ex-animatrice de télévision</t>
+  </si>
+  <si>
+    <t>Militan sindikal GWF</t>
+  </si>
+  <si>
+    <t>Prakash Ramchurrun</t>
+  </si>
+  <si>
+    <t>Gayatree Dayal</t>
+  </si>
+  <si>
+    <t>Marie-Lourdes Chelvan</t>
+  </si>
+  <si>
+    <t>Frédéric Curé</t>
   </si>
   <si>
     <t>Marie Sylvette Marisson</t>
   </si>
   <si>
-    <t>Kailesh Jugutpal</t>
+    <t>Fazlek Hosseny</t>
   </si>
   <si>
     <t>Sylvio Michel</t>
   </si>
   <si>
+    <t>Patrick Assirvaden</t>
+  </si>
+  <si>
     <t>Laval Yves</t>
   </si>
   <si>
-    <t>Renganaden Padayachy</t>
-  </si>
-  <si>
-    <t>Ismaël Rawoo</t>
-  </si>
-  <si>
-    <t>Cindy Clelie</t>
+    <t>Cader Sayed-Hossen</t>
+  </si>
+  <si>
+    <t>GUA Georges Stephan</t>
+  </si>
+  <si>
+    <t>Khushal Lobine</t>
+  </si>
+  <si>
+    <t>Serge Gilbert Bablee</t>
+  </si>
+  <si>
+    <t>Journaliste</t>
+  </si>
+  <si>
+    <t>Mahmadally Burkutoola</t>
+  </si>
+  <si>
+    <t>Purmanund (Mahen) Jhugroo</t>
+  </si>
+  <si>
+    <t>Pharmacien</t>
+  </si>
+  <si>
+    <t>Richard Antoine Ste Marie</t>
+  </si>
+  <si>
+    <t>Juliana Sabine</t>
+  </si>
+  <si>
+    <t>COONJAN Manjusha</t>
+  </si>
+  <si>
+    <t>Ajay Gunness</t>
+  </si>
+  <si>
+    <t>Joanna Bérenger</t>
+  </si>
+  <si>
+    <t>Dhanraj Boodhoo</t>
+  </si>
+  <si>
+    <t>Dan Baboo</t>
+  </si>
+  <si>
+    <t>Stephanie Anquetil</t>
+  </si>
+  <si>
+    <t>Thangavel Thoda</t>
+  </si>
+  <si>
+    <t>Nandcoomar (Nando) Bodha</t>
+  </si>
+  <si>
+    <t>Marie Noelle Francoise Labelle</t>
+  </si>
+  <si>
+    <t>Directrice de compagnie</t>
+  </si>
+  <si>
+    <t>Ashley Ittoo</t>
+  </si>
+  <si>
+    <t>Marie Madeleine Coonjoobeeharry</t>
+  </si>
+  <si>
+    <t>Soopramanien Mootoosamy</t>
   </si>
   <si>
     <t>France Marie</t>
   </si>
   <si>
-    <t>Ajay Gunness</t>
-  </si>
-  <si>
-    <t>Gayatree Dayal</t>
-  </si>
-  <si>
-    <t>Joanna Bérenger</t>
+    <t>Max Bodha</t>
   </si>
   <si>
     <t>Lindsay Paul</t>
   </si>
   <si>
-    <t>Dhanraj Boodhoo</t>
+    <t>Rajni Lallah</t>
   </si>
   <si>
     <t>Avinaash Munohur</t>
   </si>
   <si>
-    <t>Frédéric Curé</t>
-  </si>
-  <si>
-    <t>Dan Baboo</t>
+    <t>SAUVAGE David</t>
   </si>
   <si>
     <t>Adrien Duval</t>
   </si>
   <si>
-    <t>Fazlek Hosseny</t>
-  </si>
-  <si>
     <t>Malini Sewocksingh</t>
   </si>
   <si>
-    <t>Nando Bodha</t>
-  </si>
-  <si>
-    <t>Patrick Assirvaden</t>
-  </si>
-  <si>
-    <t>L’Alliance Morisien</t>
-  </si>
-  <si>
     <t>Stephan Buckland</t>
   </si>
   <si>
-    <t>Françoise Labelle</t>
-  </si>
-  <si>
-    <t>Steven Obeegadoo</t>
-  </si>
-  <si>
-    <t>Ashley Ittoo</t>
-  </si>
-  <si>
-    <t>Kenny Dhunnoo</t>
-  </si>
-  <si>
-    <t>Stephanie Anquetil</t>
-  </si>
-  <si>
-    <t>Eddy Boissezon</t>
-  </si>
-  <si>
-    <t>Cader SayedHossen</t>
-  </si>
-  <si>
-    <t>Joy Beeharry?</t>
+    <t>Marie Cyril Eddy Boissézon</t>
+  </si>
+  <si>
+    <t>Soobeersingh Dhunoo (Kenny)</t>
+  </si>
+  <si>
+    <t>Satish Boolell</t>
+  </si>
+  <si>
+    <t>Head of Business Development</t>
+  </si>
+  <si>
+    <t>Dany Perrier</t>
+  </si>
+  <si>
+    <t>Louis Steven Obeegadoo</t>
+  </si>
+  <si>
+    <t>Avocat et économiste</t>
+  </si>
+  <si>
+    <t>Ansheela Iyempermal</t>
   </si>
   <si>
     <t>Rosinette Edouard</t>
   </si>
   <si>
-    <t>Thangavel Thoda</t>
-  </si>
-  <si>
-    <t>Marie Madeleine Coonjoobeeharry</t>
-  </si>
-  <si>
-    <t>Daniella PoliceMichel</t>
-  </si>
-  <si>
-    <t>Khushal Lobine</t>
+    <t>Daniella Police-Michel</t>
+  </si>
+  <si>
+    <t>Sithanen</t>
   </si>
   <si>
     <t>Martine Mavisa</t>
   </si>
   <si>
-    <t>Soopramanien Mootoosamy</t>
-  </si>
-  <si>
-    <t>Mahen Jhugroo</t>
-  </si>
-  <si>
-    <t>Max Bodha</t>
-  </si>
-  <si>
-    <t>Gilbert Bablee</t>
-  </si>
-  <si>
-    <t>Rajni Lallah</t>
-  </si>
-  <si>
-    <t>Yassine Hamuth ?</t>
-  </si>
-  <si>
-    <t>Ayub Barkatullah </t>
-  </si>
-  <si>
-    <t>Richard Antoine Ste Marie</t>
-  </si>
-  <si>
-    <t>Juliana Sabine</t>
-  </si>
-  <si>
-    <t>Satish Boolell</t>
+    <t>JACOB Ian</t>
+  </si>
+  <si>
+    <t>Arvin Boolell</t>
+  </si>
+  <si>
+    <t>Aktivist</t>
+  </si>
+  <si>
+    <t>Xavier-Luc Duval</t>
+  </si>
+  <si>
+    <t>Liseby Shirley Collard</t>
+  </si>
+  <si>
+    <t>Gorah Elleebaccus</t>
+  </si>
+  <si>
+    <t>Gaëtan Jacquette</t>
+  </si>
+  <si>
+    <t>Alain Ah Vee</t>
+  </si>
+  <si>
+    <t>Marie Alexandra Tania Diolle</t>
+  </si>
+  <si>
+    <t>Ex-chargée de cours</t>
+  </si>
+  <si>
+    <t>Vikash Peerun</t>
+  </si>
+  <si>
+    <t>Ex-CEO</t>
+  </si>
+  <si>
+    <t>Kavydass Ramano (Kavy)</t>
+  </si>
+  <si>
+    <t>Notaire</t>
+  </si>
+  <si>
+    <t>PARAPEN Kugan</t>
   </si>
   <si>
     <t>Paul Bérenger</t>
@@ -657,101 +882,95 @@
     <t>Deven Nagalingum</t>
   </si>
   <si>
-    <t>Dany Perrier</t>
-  </si>
-  <si>
-    <t>Ansheela Iyempermal</t>
-  </si>
-  <si>
     <t>Jenny Adebiro</t>
   </si>
   <si>
-    <t>Sithanen</t>
-  </si>
-  <si>
     <t>Oomar Y Mohammad</t>
   </si>
   <si>
     <t>Ivan Collendavelloo</t>
   </si>
   <si>
-    <t>Arvin Boolell</t>
-  </si>
-  <si>
-    <t>ML</t>
-  </si>
-  <si>
-    <t>Fazila JeewaDaureeawoo</t>
-  </si>
-  <si>
-    <t>XavierLuc Duval</t>
-  </si>
-  <si>
-    <t>Seety Naidoo</t>
-  </si>
-  <si>
-    <t>Liseby Shirley Collard</t>
+    <t>Senior Counsel</t>
+  </si>
+  <si>
+    <t>MLI</t>
+  </si>
+  <si>
+    <t>Fazila Daureeawoo</t>
+  </si>
+  <si>
+    <t>Avouée</t>
+  </si>
+  <si>
+    <t>Mootoosamy Naidoo (Seety)</t>
+  </si>
+  <si>
+    <t>Ex-Chairman du CEB</t>
   </si>
   <si>
     <t>Bibi Nazmeen Meerah, Joël Pascal Michel</t>
   </si>
   <si>
+    <t>Joseph Noël-Céphise</t>
+  </si>
+  <si>
+    <t>Ally Hossenboccus</t>
+  </si>
+  <si>
+    <t>ALLAGAPEN Dylan</t>
+  </si>
+  <si>
     <t>Rajesh Bhagwan</t>
   </si>
   <si>
-    <t>Gorah Elleebaccus</t>
-  </si>
-  <si>
-    <t>Joseph NoëlCéphise</t>
-  </si>
-  <si>
     <t>Franco Quirin</t>
   </si>
   <si>
-    <t>Gaëtan Jacquette</t>
-  </si>
-  <si>
-    <t>Ally Hossenboccus</t>
-  </si>
-  <si>
     <t>Karen Foo kune</t>
   </si>
   <si>
-    <t>Alain Ah Vee</t>
-  </si>
-  <si>
     <t>Danisha Sornum</t>
   </si>
   <si>
     <t>Guito Lepoigneur  </t>
   </si>
   <si>
-    <t>Ken Fong</t>
-  </si>
-  <si>
-    <t>Gilles L’Entêté</t>
-  </si>
-  <si>
     <t>Toolsyraj Benydin</t>
   </si>
   <si>
+    <t>Ancien syndicaliste</t>
+  </si>
+  <si>
+    <t>Suk Koon Kenfat Fong</t>
+  </si>
+  <si>
+    <t>Gilles L’Entete</t>
+  </si>
+  <si>
+    <t>Ex-CEO de la NHDC</t>
+  </si>
+  <si>
     <t>Warren Olivier Malépa</t>
   </si>
   <si>
-    <t>MarieNoëlle Ste Marie</t>
+    <t>Marie-Noëlle Ste Marie</t>
   </si>
   <si>
     <t xml:space="preserve">Laval Moutou </t>
   </si>
   <si>
     <t>Gary Homet</t>
+  </si>
+  <si>
+    <t>BOOJHOWON Kevin Ammar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -766,9 +985,6 @@
       <name val="Arial"/>
     </font>
     <font/>
-    <font>
-      <color rgb="FF000000"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -790,7 +1006,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -800,16 +1016,10 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1109,7 +1319,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="40.71"/>
-    <col customWidth="1" min="3" max="3" width="18.86"/>
+    <col customWidth="1" min="3" max="3" width="21.86"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1136,138 +1346,165 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>63</v>
+      <c r="A2" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>8</v>
+        <v>44</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>74</v>
+      <c r="A5" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>75</v>
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>78</v>
+        <v>54</v>
+      </c>
+      <c r="B8" s="1">
+        <v>47.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>79</v>
+        <v>55</v>
+      </c>
+      <c r="B9" s="1">
+        <v>47.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>80</v>
+        <v>56</v>
+      </c>
+      <c r="B10" s="1">
+        <v>42.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="3"/>
+      <c r="A11" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+        <v>46</v>
+      </c>
       <c r="G11" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="3"/>
+        <v>58</v>
+      </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+        <v>35</v>
+      </c>
       <c r="G12" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="3"/>
+        <v>59</v>
+      </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+        <v>35</v>
+      </c>
       <c r="G13" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1285,8 +1522,10 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.57"/>
-    <col customWidth="1" min="3" max="3" width="19.71"/>
+    <col customWidth="1" min="1" max="1" width="26.86"/>
+    <col customWidth="1" min="3" max="3" width="22.29"/>
+    <col customWidth="1" min="4" max="4" width="18.29"/>
+    <col customWidth="1" min="6" max="6" width="12.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1314,120 +1553,149 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>114</v>
+        <v>156</v>
+      </c>
+      <c r="B8" s="1">
+        <v>62.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>117</v>
+        <v>162</v>
+      </c>
+      <c r="B9" s="1">
+        <v>40.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" s="3"/>
+        <v>166</v>
+      </c>
+      <c r="B10" s="1">
+        <v>36.0</v>
+      </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="G10" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B11" s="3"/>
+        <v>169</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+        <v>46</v>
+      </c>
       <c r="G11" s="1" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B12" s="3"/>
+        <v>173</v>
+      </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+        <v>35</v>
+      </c>
       <c r="G12" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1446,7 +1714,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="22.14"/>
-    <col customWidth="1" min="3" max="3" width="19.57"/>
+    <col customWidth="1" min="3" max="3" width="22.0"/>
+    <col customWidth="1" min="4" max="4" width="24.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1474,98 +1743,138 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>113</v>
+        <v>164</v>
+      </c>
+      <c r="B8" s="1">
+        <v>33.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>115</v>
+        <v>170</v>
+      </c>
+      <c r="B9" s="1">
+        <v>42.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>118</v>
+        <v>175</v>
+      </c>
+      <c r="B10" s="1">
+        <v>55.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B11" s="3"/>
+        <v>182</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+        <v>35</v>
+      </c>
       <c r="G11" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" s="1">
+        <v>59.0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1583,7 +1892,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="26.71"/>
+    <col customWidth="1" min="1" max="1" width="30.86"/>
     <col customWidth="1" min="3" max="3" width="19.29"/>
   </cols>
   <sheetData>
@@ -1612,98 +1921,136 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>16</v>
+        <v>168</v>
+      </c>
+      <c r="B8" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>16</v>
+        <v>174</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>16</v>
+        <v>178</v>
+      </c>
+      <c r="B10" s="1">
+        <v>47.0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B11" s="3"/>
+        <v>183</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+        <v>35</v>
+      </c>
       <c r="G11" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1721,8 +2068,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.29"/>
-    <col customWidth="1" min="3" max="3" width="17.43"/>
+    <col customWidth="1" min="1" max="1" width="30.29"/>
+    <col customWidth="1" min="3" max="3" width="22.71"/>
+    <col customWidth="1" min="4" max="4" width="20.29"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1750,98 +2098,134 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>160</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>163</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>164</v>
+        <v>203</v>
+      </c>
+      <c r="B10" s="1">
+        <v>36.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B11" s="3"/>
+        <v>207</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+        <v>35</v>
+      </c>
       <c r="G11" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" s="1">
+        <v>53.0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1861,6 +2245,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="21.29"/>
     <col customWidth="1" min="3" max="3" width="20.29"/>
+    <col customWidth="1" min="4" max="4" width="25.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1888,155 +2273,165 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>142</v>
+        <v>200</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>144</v>
+        <v>202</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>147</v>
+        <v>206</v>
+      </c>
+      <c r="B8" s="1">
+        <v>68.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>149</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>150</v>
+        <v>209</v>
+      </c>
+      <c r="B9" s="1">
+        <v>50.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>151</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>153</v>
+        <v>213</v>
+      </c>
+      <c r="B10" s="1">
+        <v>42.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B11" s="3"/>
+      <c r="A11" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+        <v>46</v>
+      </c>
       <c r="G11" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B12" s="3"/>
+        <v>217</v>
+      </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+        <v>46</v>
+      </c>
       <c r="G12" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B13" s="3"/>
+        <v>219</v>
+      </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+        <v>46</v>
+      </c>
       <c r="G13" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B14" s="3"/>
+        <v>221</v>
+      </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+        <v>35</v>
+      </c>
       <c r="G14" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B15" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2055,6 +2450,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="22.86"/>
+    <col customWidth="1" min="3" max="3" width="19.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2082,124 +2478,149 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>173</v>
+      <c r="A3" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>188</v>
+      <c r="A6" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>197</v>
+        <v>225</v>
+      </c>
+      <c r="B8" s="1">
+        <v>64.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>199</v>
+        <v>227</v>
+      </c>
+      <c r="B9" s="1">
+        <v>60.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>201</v>
+        <v>228</v>
+      </c>
+      <c r="B10" s="1">
+        <v>59.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B12" s="3"/>
+        <v>231</v>
+      </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+        <v>35</v>
+      </c>
       <c r="G12" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B13" s="3"/>
+        <v>232</v>
+      </c>
+      <c r="B13" s="1">
+        <v>41.0</v>
+      </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+        <v>39</v>
+      </c>
       <c r="G13" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2217,7 +2638,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.43"/>
+    <col customWidth="1" min="1" max="1" width="31.43"/>
+    <col customWidth="1" min="3" max="3" width="21.14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2245,151 +2667,159 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>169</v>
+        <v>234</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>171</v>
+        <v>235</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>174</v>
+        <v>236</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>178</v>
+        <v>237</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>180</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>182</v>
+        <v>238</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>180</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>184</v>
+        <v>239</v>
+      </c>
+      <c r="B8" s="1">
+        <v>65.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>180</v>
+        <v>25</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>189</v>
+        <v>242</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>191</v>
+        <v>243</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>46</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B12" s="3"/>
+        <v>244</v>
+      </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+        <v>46</v>
+      </c>
       <c r="G12" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B13" s="3"/>
+        <v>246</v>
+      </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+        <v>35</v>
+      </c>
       <c r="G13" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B14" s="3"/>
+        <v>248</v>
+      </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+        <v>35</v>
+      </c>
       <c r="G14" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B15" s="3"/>
+        <v>250</v>
+      </c>
+      <c r="B15" s="1">
+        <v>38.0</v>
+      </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+        <v>39</v>
+      </c>
       <c r="G15" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2407,8 +2837,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.29"/>
-    <col customWidth="1" min="3" max="3" width="19.0"/>
+    <col customWidth="1" min="1" max="1" width="29.29"/>
+    <col customWidth="1" min="3" max="3" width="22.43"/>
+    <col customWidth="1" min="4" max="4" width="28.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2436,131 +2867,154 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>166</v>
+        <v>245</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>172</v>
+        <v>249</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>175</v>
+        <v>251</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>177</v>
+        <v>252</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>183</v>
+        <v>254</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>180</v>
+        <v>25</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>185</v>
+        <v>255</v>
+      </c>
+      <c r="B9" s="1">
+        <v>35.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>180</v>
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>187</v>
+        <v>259</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>180</v>
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B11" s="3"/>
+        <v>262</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+        <v>46</v>
+      </c>
       <c r="G11" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B12" s="3"/>
+      <c r="A12" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+        <v>46</v>
+      </c>
       <c r="G12" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B13" s="3"/>
+        <v>265</v>
+      </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+        <v>35</v>
+      </c>
       <c r="G13" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2607,128 +3061,175 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>205</v>
+        <v>256</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>208</v>
+        <v>258</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>211</v>
+        <v>264</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>214</v>
+        <v>267</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>217</v>
+      <c r="A7" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>270</v>
+      </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+        <v>46</v>
+      </c>
       <c r="G8" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B9" s="3"/>
+        <v>271</v>
+      </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+        <v>46</v>
+      </c>
       <c r="G9" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B10" s="3"/>
+        <v>272</v>
+      </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+        <v>46</v>
+      </c>
       <c r="G10" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B11" s="3"/>
+        <v>273</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+        <v>35</v>
+      </c>
       <c r="G11" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B12" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B15" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2746,7 +3247,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="25.0"/>
+    <col customWidth="1" min="1" max="1" width="36.71"/>
+    <col customWidth="1" min="2" max="2" width="25.0"/>
     <col customWidth="1" min="3" max="3" width="19.14"/>
   </cols>
   <sheetData>
@@ -2775,115 +3277,135 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>206</v>
+        <v>281</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>207</v>
+        <v>282</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>210</v>
+        <v>283</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>212</v>
+        <v>284</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>16</v>
+        <v>285</v>
+      </c>
+      <c r="B6" s="1">
+        <v>69.0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>286</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>215</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>16</v>
+      <c r="A7" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>16</v>
+        <v>290</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B9" s="3"/>
+        <v>292</v>
+      </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+        <v>46</v>
+      </c>
       <c r="G9" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B10" s="3"/>
+      <c r="A10" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+        <v>46</v>
+      </c>
       <c r="G10" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B11" s="3"/>
+        <v>294</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+        <v>35</v>
+      </c>
       <c r="G11" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B12" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2902,7 +3424,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="17.86"/>
-    <col customWidth="1" min="3" max="3" width="19.57"/>
+    <col customWidth="1" min="3" max="3" width="23.29"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2933,108 +3455,140 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="B8" s="1">
+        <v>62.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
+      </c>
+      <c r="B9" s="1">
+        <v>33.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="B10" s="1">
+        <v>50.0</v>
+      </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="3"/>
+        <v>45</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+        <v>46</v>
+      </c>
       <c r="G11" s="1" t="s">
-        <v>24</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="1">
+        <v>46.0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3055,7 +3609,7 @@
     <col customWidth="1" min="1" max="1" width="38.86"/>
     <col customWidth="1" min="2" max="2" width="12.86"/>
     <col customWidth="1" min="3" max="3" width="20.29"/>
-    <col customWidth="1" min="4" max="4" width="18.43"/>
+    <col customWidth="1" min="4" max="4" width="19.14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3083,119 +3637,154 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>221</v>
+        <v>296</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>224</v>
+        <v>297</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>227</v>
+        <v>298</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>229</v>
+        <v>299</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>231</v>
+        <v>301</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>232</v>
+        <v>303</v>
+      </c>
+      <c r="B8" s="1">
+        <v>48.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>233</v>
+        <v>304</v>
+      </c>
+      <c r="B9" s="1">
+        <v>54.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>234</v>
+        <v>306</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>235</v>
+      <c r="A11" s="1" t="s">
+        <v>307</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>236</v>
+        <v>308</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>237</v>
+        <v>309</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B14" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3282,107 +3871,147 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>67</v>
+      <c r="A7" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>27</v>
+      </c>
+      <c r="B8" s="1">
+        <v>65.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>30</v>
+      </c>
+      <c r="B9" s="1">
+        <v>69.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>71</v>
+        <v>32</v>
+      </c>
+      <c r="B10" s="1">
+        <v>52.0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="3"/>
+        <v>34</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+        <v>35</v>
+      </c>
       <c r="G11" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="1">
+        <v>61.0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3402,6 +4031,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="24.57"/>
     <col customWidth="1" min="3" max="3" width="20.0"/>
+    <col customWidth="1" min="4" max="4" width="23.86"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3429,120 +4059,156 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>68</v>
+      </c>
+      <c r="B8" s="1">
+        <v>61.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>74</v>
+      </c>
+      <c r="B9" s="1">
+        <v>34.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>78</v>
+      </c>
+      <c r="B10" s="1">
+        <v>39.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="3"/>
+        <v>89</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+        <v>46</v>
+      </c>
       <c r="G11" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="1" t="s">
-        <v>24</v>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="1">
+        <v>43.0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3589,146 +4255,174 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>39</v>
+      <c r="A4" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>85</v>
+      </c>
+      <c r="B8" s="1">
+        <v>40.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>90</v>
+      </c>
+      <c r="B9" s="1">
+        <v>55.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>95</v>
+      </c>
+      <c r="B10" s="1">
+        <v>62.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
       <c r="G11" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="3"/>
+        <v>101</v>
+      </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+        <v>46</v>
+      </c>
       <c r="G12" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="3"/>
+        <v>105</v>
+      </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+        <v>35</v>
+      </c>
       <c r="G14" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3775,108 +4469,144 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>83</v>
+      </c>
+      <c r="B8" s="1">
+        <v>58.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>86</v>
+      </c>
+      <c r="B9" s="1">
+        <v>37.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="B10" s="1">
+        <v>39.0</v>
+      </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="G10" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="3"/>
+        <v>96</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+        <v>46</v>
+      </c>
       <c r="G11" s="1" t="s">
-        <v>24</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3924,90 +4654,130 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>89</v>
+        <v>126</v>
+      </c>
+      <c r="B7" s="1">
+        <v>55.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>90</v>
+        <v>133</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>91</v>
+      <c r="A9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="1">
+        <v>40.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="3"/>
+        <v>142</v>
+      </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+        <v>35</v>
+      </c>
       <c r="G10" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="4">
+        <v>44.0</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -4026,7 +4796,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="22.43"/>
-    <col customWidth="1" min="3" max="3" width="19.43"/>
+    <col customWidth="1" min="3" max="3" width="24.14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4054,77 +4824,138 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>125</v>
+      </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+        <v>35</v>
+      </c>
       <c r="G8" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="1">
+        <v>58.0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="1">
+        <v>57.0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="1">
+        <v>59.0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -4142,7 +4973,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.71"/>
+    <col customWidth="1" min="1" max="1" width="31.29"/>
     <col customWidth="1" min="3" max="3" width="20.71"/>
   </cols>
   <sheetData>
@@ -4171,98 +5002,132 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
         <v>127</v>
       </c>
+      <c r="B8" s="1">
+        <v>39.0</v>
+      </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="B9" s="1">
+        <v>55.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
+      </c>
+      <c r="B10" s="1">
+        <v>49.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B11" s="3"/>
+        <v>136</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+        <v>35</v>
+      </c>
       <c r="G11" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
